--- a/UnitTests/Tests/LatentModels.xlsx
+++ b/UnitTests/Tests/LatentModels.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="180" windowWidth="19485" windowHeight="12465"/>
+    <workbookView xWindow="75" yWindow="180" windowWidth="19485" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -87,10 +92,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +140,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -146,11 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,12 +164,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +247,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,7 +491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -458,7 +500,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -511,19 +553,19 @@
         <v>ERROR</v>
       </c>
       <c r="E3" t="e">
-        <f>_xll.qlGaussianDefaultProbLM("lm01",H7,K9:K11)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlGaussianDefaultProbLM("lm01",H7,K9:K11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="str">
-        <f>_xll.qlHazardRateCurve(,L4:L7,K4:K7,"actual/360")</f>
-        <v>obj_00002#0000</v>
-      </c>
-      <c r="L3" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="H3" t="e">
+        <f ca="1">_xll.qlHazardRateCurve(,L4:L7,K4:K7,"actual/360")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -538,22 +580,22 @@
         <v>ERROR</v>
       </c>
       <c r="E4" t="e">
-        <f>_xll.qlGaussianLMDefaultCorrel()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlGaussianLMDefaultCorrel()</f>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="str">
-        <f>_xll.qlDefaultEvent()</f>
-        <v>obj_00001#0000</v>
+      <c r="H4" t="e">
+        <f ca="1">_xll.qlDefaultEvent()</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <f>L3+1</f>
-        <v>42645</v>
+      <c r="L4" s="4" t="e">
+        <f ca="1">L3+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -568,22 +610,22 @@
         <v>ERROR</v>
       </c>
       <c r="E5" t="e">
-        <f>_xll.qlGaussianLMAssetCorrel()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlGaussianLMAssetCorrel()</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="str">
-        <f>_xll.qlIssuer(,H3,H4)</f>
-        <v>obj_00003#0000</v>
+      <c r="H5" t="e">
+        <f ca="1">_xll.qlIssuer(,H3,H4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5:L7" si="1">L4+1</f>
-        <v>42646</v>
+      <c r="L5" s="4" t="e">
+        <f t="shared" ref="L5:L7" ca="1" si="1">L4+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,22 +640,22 @@
         <v>ERROR</v>
       </c>
       <c r="E6" t="e">
-        <f>_xll.qlGaussianLMProbNHits()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlGaussianLMProbNHits()</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="str">
-        <f>_xll.qlGBinomialLossmodel(,K9:K11,L9:L11)</f>
-        <v>obj_00000#0000</v>
+      <c r="H6" t="e">
+        <f ca="1">_xll.qlGBinomialLossmodel(,K9:K11,L9:L11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="L6" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,22 +670,22 @@
         <v>ERROR</v>
       </c>
       <c r="E7" t="e">
-        <f>_xll.qlTDefaultProbLM("lm02",L9:L11,H7,L9:L11)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlTDefaultProbLM("lm02",L9:L11,H7,L9:L11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="str">
-        <f>_xll.qlCreditBasket(,"abc",H5,100)</f>
-        <v>obj_00004#0000</v>
+      <c r="H7" t="e">
+        <f ca="1">_xll.qlCreditBasket(,"abc",H5,100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>42648</v>
+      <c r="L7" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -658,8 +700,8 @@
         <v>ERROR</v>
       </c>
       <c r="E8" t="e">
-        <f>_xll.qlTLMDefaultCorrel()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlTLMDefaultCorrel()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,8 +716,8 @@
         <v>ERROR</v>
       </c>
       <c r="E9" t="e">
-        <f>_xll.qlTLMAssetCorrel()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlTLMAssetCorrel()</f>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="5">
         <v>0.25</v>
@@ -696,8 +738,8 @@
         <v>ERROR</v>
       </c>
       <c r="E10" t="e">
-        <f>_xll.qlTLMProbNHits()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlTLMProbNHits()</f>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="5">
         <v>0.5</v>
@@ -721,26 +763,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
